--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgav</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H2">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I2">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J2">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>54.61476179548266</v>
+        <v>136.103502507568</v>
       </c>
       <c r="R2">
-        <v>491.532856159344</v>
+        <v>1224.931522568112</v>
       </c>
       <c r="S2">
-        <v>0.01588393339706119</v>
+        <v>0.03244582796693496</v>
       </c>
       <c r="T2">
-        <v>0.01588393339706119</v>
+        <v>0.03244582796693496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H3">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I3">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J3">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>389.8012589006453</v>
+        <v>535.184163000535</v>
       </c>
       <c r="R3">
-        <v>3508.211330105808</v>
+        <v>4816.657467004816</v>
       </c>
       <c r="S3">
-        <v>0.113368199931993</v>
+        <v>0.1275830009031391</v>
       </c>
       <c r="T3">
-        <v>0.1133681999319931</v>
+        <v>0.1275830009031391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H4">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I4">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J4">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>381.188302038368</v>
+        <v>495.3617910934933</v>
       </c>
       <c r="R4">
-        <v>3430.694718345312</v>
+        <v>4458.25611984144</v>
       </c>
       <c r="S4">
-        <v>0.1108632428717667</v>
+        <v>0.1180897123078706</v>
       </c>
       <c r="T4">
-        <v>0.1108632428717667</v>
+        <v>0.1180897123078707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H5">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I5">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J5">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>111.1902410653653</v>
+        <v>128.6644358248267</v>
       </c>
       <c r="R5">
-        <v>1000.712169588288</v>
+        <v>1157.97992242344</v>
       </c>
       <c r="S5">
-        <v>0.03233811382532703</v>
+        <v>0.03067242262926291</v>
       </c>
       <c r="T5">
-        <v>0.03233811382532703</v>
+        <v>0.03067242262926291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H6">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I6">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J6">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>165.4760049716747</v>
+        <v>247.9171337496231</v>
       </c>
       <c r="R6">
-        <v>1489.284044745072</v>
+        <v>2231.254203746608</v>
       </c>
       <c r="S6">
-        <v>0.04812636282521054</v>
+        <v>0.05910117317699887</v>
       </c>
       <c r="T6">
-        <v>0.04812636282521054</v>
+        <v>0.05910117317699887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.460847999999999</v>
+        <v>7.497562666666666</v>
       </c>
       <c r="H7">
-        <v>16.382544</v>
+        <v>22.492688</v>
       </c>
       <c r="I7">
-        <v>0.4472616033121704</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="J7">
-        <v>0.4472616033121705</v>
+        <v>0.528029920342038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>435.5781060207733</v>
+        <v>671.7447069315128</v>
       </c>
       <c r="R7">
-        <v>3920.20295418696</v>
+        <v>6045.702362383616</v>
       </c>
       <c r="S7">
-        <v>0.1266817504608119</v>
+        <v>0.1601377833578315</v>
       </c>
       <c r="T7">
-        <v>0.126681750460812</v>
+        <v>0.1601377833578315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>15.507426</v>
       </c>
       <c r="I8">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J8">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>51.69736623634734</v>
+        <v>93.835605307686</v>
       </c>
       <c r="R8">
-        <v>465.276296127126</v>
+        <v>844.5204477691741</v>
       </c>
       <c r="S8">
-        <v>0.01503545003412504</v>
+        <v>0.02236954854866498</v>
       </c>
       <c r="T8">
-        <v>0.01503545003412504</v>
+        <v>0.02236954854866499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>15.507426</v>
       </c>
       <c r="I9">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J9">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>368.9789679251646</v>
@@ -1013,10 +1013,10 @@
         <v>3320.810711326482</v>
       </c>
       <c r="S9">
-        <v>0.1073123301972262</v>
+        <v>0.08796120523093381</v>
       </c>
       <c r="T9">
-        <v>0.1073123301972262</v>
+        <v>0.08796120523093383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>15.507426</v>
       </c>
       <c r="I10">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J10">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>360.826095502972</v>
+        <v>341.52371288882</v>
       </c>
       <c r="R10">
-        <v>3247.434859526748</v>
+        <v>3073.71341599938</v>
       </c>
       <c r="S10">
-        <v>0.1049411822091825</v>
+        <v>0.08141612398551891</v>
       </c>
       <c r="T10">
-        <v>0.1049411822091825</v>
+        <v>0.08141612398551894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>15.507426</v>
       </c>
       <c r="I11">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J11">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>105.2507129077947</v>
+        <v>88.70679295357002</v>
       </c>
       <c r="R11">
-        <v>947.2564161701521</v>
+        <v>798.36113658213</v>
       </c>
       <c r="S11">
-        <v>0.03061068580837236</v>
+        <v>0.02114688667552851</v>
       </c>
       <c r="T11">
-        <v>0.03061068580837237</v>
+        <v>0.02114688667552851</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1169,10 +1169,10 @@
         <v>15.507426</v>
       </c>
       <c r="I12">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J12">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>156.6366555691153</v>
+        <v>170.9247292166407</v>
       </c>
       <c r="R12">
-        <v>1409.729900122038</v>
+        <v>1538.322562949766</v>
       </c>
       <c r="S12">
-        <v>0.04555556268679049</v>
+        <v>0.04074688936935838</v>
       </c>
       <c r="T12">
-        <v>0.04555556268679049</v>
+        <v>0.04074688936935839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>15.507426</v>
       </c>
       <c r="I13">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="J13">
-        <v>0.4233699122678894</v>
+        <v>0.3640465254970882</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>412.3105206576767</v>
+        <v>463.1296772369814</v>
       </c>
       <c r="R13">
-        <v>3710.794685919091</v>
+        <v>4168.167095132832</v>
       </c>
       <c r="S13">
-        <v>0.1199147013321928</v>
+        <v>0.1104058716870836</v>
       </c>
       <c r="T13">
-        <v>0.1199147013321928</v>
+        <v>0.1104058716870836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H14">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I14">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J14">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>0.7055744885831111</v>
+        <v>27.036268106638</v>
       </c>
       <c r="R14">
-        <v>6.350170397248</v>
+        <v>243.326412959742</v>
       </c>
       <c r="S14">
-        <v>0.0002052063913651754</v>
+        <v>0.00644519860028679</v>
       </c>
       <c r="T14">
-        <v>0.0002052063913651754</v>
+        <v>0.006445198600286791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H15">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I15">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J15">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>5.035888006392889</v>
+        <v>106.3116102872118</v>
       </c>
       <c r="R15">
-        <v>45.322992057536</v>
+        <v>956.804492584906</v>
       </c>
       <c r="S15">
-        <v>0.001464617020360602</v>
+        <v>0.02534371382598993</v>
       </c>
       <c r="T15">
-        <v>0.001464617020360603</v>
+        <v>0.02534371382598993</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H16">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I16">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J16">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>4.924616210389334</v>
+        <v>98.40109877439335</v>
       </c>
       <c r="R16">
-        <v>44.321545893504</v>
+        <v>885.6098889695401</v>
       </c>
       <c r="S16">
-        <v>0.001432255187431432</v>
+        <v>0.02345792036038023</v>
       </c>
       <c r="T16">
-        <v>0.001432255187431432</v>
+        <v>0.02345792036038023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H17">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I17">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J17">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>1.436479715299556</v>
+        <v>25.55853536947667</v>
       </c>
       <c r="R17">
-        <v>12.928317437696</v>
+        <v>230.02681832529</v>
       </c>
       <c r="S17">
-        <v>0.0004177798707516254</v>
+        <v>0.006092920655284027</v>
       </c>
       <c r="T17">
-        <v>0.0004177798707516253</v>
+        <v>0.006092920655284027</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H18">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I18">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J18">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>2.137803841713778</v>
+        <v>49.24747690391978</v>
       </c>
       <c r="R18">
-        <v>19.240234575424</v>
+        <v>443.227292135278</v>
       </c>
       <c r="S18">
-        <v>0.0006217501042103206</v>
+        <v>0.01174014727020956</v>
       </c>
       <c r="T18">
-        <v>0.0006217501042103205</v>
+        <v>0.01174014727020956</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.07054933333333334</v>
+        <v>1.489352666666667</v>
       </c>
       <c r="H19">
-        <v>0.211648</v>
+        <v>4.468058</v>
       </c>
       <c r="I19">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="J19">
-        <v>0.005778224909257943</v>
+        <v>0.1048904563929223</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>5.627284442702223</v>
+        <v>133.4386673466062</v>
       </c>
       <c r="R19">
-        <v>50.64555998432</v>
+        <v>1200.948006119456</v>
       </c>
       <c r="S19">
-        <v>0.001636616335138787</v>
+        <v>0.03181055568077173</v>
       </c>
       <c r="T19">
-        <v>0.001636616335138787</v>
+        <v>0.03181055568077173</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H20">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I20">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J20">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>14.18805524489744</v>
+        <v>0.7818027232220002</v>
       </c>
       <c r="R20">
-        <v>127.692497204077</v>
+        <v>7.036224508998001</v>
       </c>
       <c r="S20">
-        <v>0.004126395815616575</v>
+        <v>0.0001863746060490383</v>
       </c>
       <c r="T20">
-        <v>0.004126395815616575</v>
+        <v>0.0001863746060490383</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H21">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I21">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J21">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>101.2642299260266</v>
+        <v>3.074193010101556</v>
       </c>
       <c r="R21">
-        <v>911.3780693342389</v>
+        <v>27.667737090914</v>
       </c>
       <c r="S21">
-        <v>0.02945127344275512</v>
+        <v>0.0007328594467094096</v>
       </c>
       <c r="T21">
-        <v>0.02945127344275513</v>
+        <v>0.0007328594467094097</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H22">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I22">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J22">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>99.02671933792733</v>
+        <v>2.845446223806667</v>
       </c>
       <c r="R22">
-        <v>891.2404740413459</v>
+        <v>25.60901601426</v>
       </c>
       <c r="S22">
-        <v>0.02880052503722922</v>
+        <v>0.0006783283087197718</v>
       </c>
       <c r="T22">
-        <v>0.02880052503722923</v>
+        <v>0.0006783283087197719</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H23">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I23">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J23">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>28.88547401957822</v>
+        <v>0.7390714012233336</v>
       </c>
       <c r="R23">
-        <v>259.969266176204</v>
+        <v>6.651642611010001</v>
       </c>
       <c r="S23">
-        <v>0.008400932831816756</v>
+        <v>0.0001761878504048083</v>
       </c>
       <c r="T23">
-        <v>0.008400932831816756</v>
+        <v>0.0001761878504048083</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H24">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I24">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J24">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>42.98806079270011</v>
+        <v>1.424080106153556</v>
       </c>
       <c r="R24">
-        <v>386.892547134301</v>
+        <v>12.816720955382</v>
       </c>
       <c r="S24">
-        <v>0.01250247134752758</v>
+        <v>0.0003394876493558533</v>
       </c>
       <c r="T24">
-        <v>0.01250247134752758</v>
+        <v>0.0003394876493558533</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.418642333333333</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H25">
-        <v>4.255927</v>
+        <v>0.129202</v>
       </c>
       <c r="I25">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="J25">
-        <v>0.1161915227329501</v>
+        <v>0.003033097767951612</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>113.1563340847839</v>
+        <v>3.858621060540445</v>
       </c>
       <c r="R25">
-        <v>1018.407006763055</v>
+        <v>34.727589544864</v>
       </c>
       <c r="S25">
-        <v>0.03290992425800485</v>
+        <v>0.0009198599067127307</v>
       </c>
       <c r="T25">
-        <v>0.03290992425800486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.090335</v>
-      </c>
-      <c r="H26">
-        <v>0.271005</v>
-      </c>
-      <c r="I26">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J26">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.00115033333333</v>
-      </c>
-      <c r="N26">
-        <v>30.003451</v>
-      </c>
-      <c r="O26">
-        <v>0.03551374247070085</v>
-      </c>
-      <c r="P26">
-        <v>0.03551374247070085</v>
-      </c>
-      <c r="Q26">
-        <v>0.9034539153616666</v>
-      </c>
-      <c r="R26">
-        <v>8.131085238255</v>
-      </c>
-      <c r="S26">
-        <v>0.0002627568325328817</v>
-      </c>
-      <c r="T26">
-        <v>0.0002627568325328817</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.090335</v>
-      </c>
-      <c r="H27">
-        <v>0.271005</v>
-      </c>
-      <c r="I27">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J27">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>71.38108566666666</v>
-      </c>
-      <c r="N27">
-        <v>214.143257</v>
-      </c>
-      <c r="O27">
-        <v>0.253471791659403</v>
-      </c>
-      <c r="P27">
-        <v>0.2534717916594031</v>
-      </c>
-      <c r="Q27">
-        <v>6.448210373698333</v>
-      </c>
-      <c r="R27">
-        <v>58.033893363285</v>
-      </c>
-      <c r="S27">
-        <v>0.00187537106706808</v>
-      </c>
-      <c r="T27">
-        <v>0.00187537106706808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.090335</v>
-      </c>
-      <c r="H28">
-        <v>0.271005</v>
-      </c>
-      <c r="I28">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J28">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>69.803866</v>
-      </c>
-      <c r="N28">
-        <v>209.411598</v>
-      </c>
-      <c r="O28">
-        <v>0.2478711386150191</v>
-      </c>
-      <c r="P28">
-        <v>0.2478711386150191</v>
-      </c>
-      <c r="Q28">
-        <v>6.30573223511</v>
-      </c>
-      <c r="R28">
-        <v>56.75159011599</v>
-      </c>
-      <c r="S28">
-        <v>0.001833933309409279</v>
-      </c>
-      <c r="T28">
-        <v>0.001833933309409279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.090335</v>
-      </c>
-      <c r="H29">
-        <v>0.271005</v>
-      </c>
-      <c r="I29">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J29">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>20.36135066666667</v>
-      </c>
-      <c r="N29">
-        <v>61.084052</v>
-      </c>
-      <c r="O29">
-        <v>0.07230245920027331</v>
-      </c>
-      <c r="P29">
-        <v>0.07230245920027331</v>
-      </c>
-      <c r="Q29">
-        <v>1.839342612473333</v>
-      </c>
-      <c r="R29">
-        <v>16.55408351226</v>
-      </c>
-      <c r="S29">
-        <v>0.0005349468640055386</v>
-      </c>
-      <c r="T29">
-        <v>0.0005349468640055386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.090335</v>
-      </c>
-      <c r="H30">
-        <v>0.271005</v>
-      </c>
-      <c r="I30">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J30">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>30.30225433333333</v>
-      </c>
-      <c r="N30">
-        <v>90.906763</v>
-      </c>
-      <c r="O30">
-        <v>0.1076022678200263</v>
-      </c>
-      <c r="P30">
-        <v>0.1076022678200263</v>
-      </c>
-      <c r="Q30">
-        <v>2.737354145201667</v>
-      </c>
-      <c r="R30">
-        <v>24.636187306815</v>
-      </c>
-      <c r="S30">
-        <v>0.0007961208562874108</v>
-      </c>
-      <c r="T30">
-        <v>0.0007961208562874108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.090335</v>
-      </c>
-      <c r="H31">
-        <v>0.271005</v>
-      </c>
-      <c r="I31">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="J31">
-        <v>0.007398736777732125</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.76382166666667</v>
-      </c>
-      <c r="N31">
-        <v>239.291465</v>
-      </c>
-      <c r="O31">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="P31">
-        <v>0.2832386002345773</v>
-      </c>
-      <c r="Q31">
-        <v>7.205464830258333</v>
-      </c>
-      <c r="R31">
-        <v>64.84918347232501</v>
-      </c>
-      <c r="S31">
-        <v>0.002095607848428934</v>
-      </c>
-      <c r="T31">
-        <v>0.002095607848428934</v>
+        <v>0.0009198599067127307</v>
       </c>
     </row>
   </sheetData>
